--- a/QA/testcases/Provider/Provider_Registration_Positive.xlsx
+++ b/QA/testcases/Provider/Provider_Registration_Positive.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -19,14 +19,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
+  <connection id="1" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="164">
   <si>
     <t>Step No</t>
   </si>
@@ -55,9 +55,6 @@
     <t>PortalSelection</t>
   </si>
   <si>
-    <t>Pharmacy</t>
-  </si>
-  <si>
     <t>Launch URL and select portal</t>
   </si>
   <si>
@@ -518,19 +515,16 @@
   </si>
   <si>
     <t>PatientSSN</t>
+  </si>
+  <si>
+    <t>Provider</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,346 +557,16 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -912,264 +576,22 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1182,57 +604,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1243,7 +618,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Xpath"/>
@@ -1543,29 +918,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="28" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="57.2857142857143" style="5" customWidth="1"/>
-    <col min="5" max="5" width="47.1428571428571" style="4" customWidth="1"/>
-    <col min="6" max="6" width="72.7142857142857" style="4" customWidth="1"/>
-    <col min="7" max="7" width="84.7142857142857" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85714285714286" style="4"/>
+    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="47.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="72.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="84.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1603,37 +978,37 @@
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="7">
         <v>1003170291</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1641,284 +1016,284 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="H4" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4">
         <v>5</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="D14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="4">
         <v>1213</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1926,640 +1301,651 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="D19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="H19" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="G20" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="4">
         <v>5</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="F22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>68</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
-      <formula1>[1]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22">
-      <formula1>DataList!$C:$C</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22">
-      <formula1>DataList!$A$2:$A$12</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId2" display="1003170291" tooltip="https://npiregistry.cms.hhs.gov/registry/provider-view/1003170291"/>
+    <hyperlink ref="E3" r:id="rId1" tooltip="https://npiregistry.cms.hhs.gov/registry/provider-view/1003170291" display="1003170291"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DataList!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DataList!$A$2:$A$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>75</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>77</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>83</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>85</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
+    <row r="14" spans="1:4">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" t="s">
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
-      <c r="C16" t="s">
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
+    <row r="28" spans="3:4">
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" t="s">
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="s">
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
-      <c r="C65" t="s">
+    <row r="66" spans="3:4">
+      <c r="C66" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
-      <c r="C66" t="s">
+    <row r="67" spans="3:4">
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
-      <c r="C67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" t="s">
+    <row r="69" spans="3:4">
+      <c r="C69" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
-      <c r="C69" t="s">
+    <row r="70" spans="3:4">
+      <c r="C70" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" t="s">
         <v>139</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" t="s">
         <v>141</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" t="s">
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
-      <c r="C75" t="s">
+    <row r="76" spans="3:4">
+      <c r="C76" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
-      <c r="C76" t="s">
+    <row r="77" spans="3:4">
+      <c r="C77" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" t="s">
         <v>147</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="3:3">
@@ -2569,7 +1955,7 @@
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2578,9 +1964,8 @@
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
